--- a/runtime/drivers/file/testdata/expected_export/expected_output.xlsx
+++ b/runtime/drivers/file/testdata/expected_export/expected_output.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>{"key": "value"}</t>
+          <t>{"key":"value"}</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">

--- a/runtime/drivers/file/testdata/expected_export/expected_output.xlsx
+++ b/runtime/drivers/file/testdata/expected_export/expected_output.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>{"key":"value"}</t>
+          <t>{"key": "value"}</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
